--- a/Troy.Web/Troy.Web/App_Data/ExcelFiles/Productgroup.xlsx
+++ b/Troy.Web/Troy.Web/App_Data/ExcelFiles/Productgroup.xlsx
@@ -16,60 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Level</t>
   </si>
   <si>
-    <t>Product_Group_Name</t>
+    <t>Product Group Name</t>
   </si>
   <si>
-    <t>Camera1sad2</t>
+    <t>grptest</t>
   </si>
   <si>
-    <t>WhiteGoods12as4</t>
-  </si>
-  <si>
-    <t>Furniture12asddfge</t>
-  </si>
-  <si>
-    <t>test1asd34</t>
-  </si>
-  <si>
-    <t>test2asd34</t>
-  </si>
-  <si>
-    <t>test3sde34</t>
-  </si>
-  <si>
-    <t>test4asd2344</t>
-  </si>
-  <si>
-    <t>test5asd234</t>
-  </si>
-  <si>
-    <t>test6dfw24</t>
-  </si>
-  <si>
-    <t>test7asd34</t>
-  </si>
-  <si>
-    <t>asdasdasd344</t>
-  </si>
-  <si>
-    <t>test9sdf344</t>
-  </si>
-  <si>
-    <t>test10sdf4344</t>
-  </si>
-  <si>
-    <t>test11sdf344</t>
-  </si>
-  <si>
-    <t>test12ret344</t>
-  </si>
-  <si>
-    <t>test23423423sdf</t>
+    <t>Galaxy</t>
   </si>
 </sst>
 </file>
@@ -401,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -422,130 +380,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
